--- a/src/test/resources/com/prestashop/test-data/Products.xlsx
+++ b/src/test/resources/com/prestashop/test-data/Products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekschool/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekschool/JavaPrgs/acceptance-tests/src/test/resources/com/prestashop/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C11139-DCBF-D948-AF61-207FD8D6925C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0832E5-7A9A-244A-B79E-17F7ABD42CDE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="9600" windowWidth="29340" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9580" yWindow="2640" windowWidth="29340" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Execute</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>Product</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Blue</t>
   </si>
 </sst>
 </file>
@@ -418,7 +427,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,7 +461,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -467,7 +476,10 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -489,6 +501,9 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -509,6 +524,9 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -528,6 +546,9 @@
       </c>
       <c r="F5" t="s">
         <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/com/prestashop/test-data/Products.xlsx
+++ b/src/test/resources/com/prestashop/test-data/Products.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekschool/JavaPrgs/acceptance-tests/src/test/resources/com/prestashop/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0832E5-7A9A-244A-B79E-17F7ABD42CDE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF1A6AD-3BCB-2A4C-8231-02867251247A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="2640" windowWidth="29340" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sort" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Execute</t>
   </si>
@@ -103,6 +104,48 @@
   </si>
   <si>
     <t>Blue</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>Price: Lowest first</t>
+  </si>
+  <si>
+    <t>Price: Highest first</t>
+  </si>
+  <si>
+    <t>Product Name: A to Z</t>
+  </si>
+  <si>
+    <t>Product Name: Z to A</t>
+  </si>
+  <si>
+    <t>In stock</t>
+  </si>
+  <si>
+    <t>Reference: Lowest first</t>
+  </si>
+  <si>
+    <t>Reference: Highest first</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Printed Dress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Printed Chiffon Dress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Printed Chiffon Dress            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Printed Summer Dress             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">price        </t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -426,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+    <sheetView zoomScale="157" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -555,4 +598,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333419CA-489B-534C-9571-ABC48E4CE77F}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="256" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1">
+        <v>28.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/com/prestashop/test-data/Products.xlsx
+++ b/src/test/resources/com/prestashop/test-data/Products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekschool/JavaPrgs/acceptance-tests/src/test/resources/com/prestashop/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF1A6AD-3BCB-2A4C-8231-02867251247A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B89288-83DF-8F49-AC1F-D554838A94FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Execute</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>option</t>
-  </si>
-  <si>
     <t>Price: Lowest first</t>
   </si>
   <si>
@@ -142,10 +139,13 @@
     <t xml:space="preserve"> Printed Summer Dress             </t>
   </si>
   <si>
-    <t xml:space="preserve">price        </t>
-  </si>
-  <si>
-    <t>name</t>
+    <t xml:space="preserve">Price        </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Option</t>
   </si>
 </sst>
 </file>
@@ -602,21 +602,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333419CA-489B-534C-9571-ABC48E4CE77F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="256" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>38</v>
@@ -624,81 +624,108 @@
       <c r="C1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1">
+        <v>50.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D4" s="1">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1">
-        <v>50.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="1">
+        <v>28.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1">
-        <v>28.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>26</v>
       </c>
     </row>

--- a/src/test/resources/com/prestashop/test-data/Products.xlsx
+++ b/src/test/resources/com/prestashop/test-data/Products.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekschool/JavaPrgs/acceptance-tests/src/test/resources/com/prestashop/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B89288-83DF-8F49-AC1F-D554838A94FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0BFBB9C9-C6EA-E342-8DFC-9F2C87E8047E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="20980" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sort" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="sort" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Execute</t>
   </si>
@@ -127,25 +127,25 @@
     <t>Reference: Highest first</t>
   </si>
   <si>
-    <t xml:space="preserve"> Printed Dress</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Printed Chiffon Dress</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Printed Chiffon Dress            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Printed Summer Dress             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price        </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Option</t>
+  </si>
+  <si>
+    <t>Printed Chiffon Dress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printed Chiffon Dress            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printed Summer Dress             </t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -182,17 +182,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -209,10 +209,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -247,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -282,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -376,21 +376,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -407,7 +407,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -459,24 +459,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="157">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="6" width="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="3" max="6" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -595,23 +595,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333419CA-489B-534C-9571-ABC48E4CE77F}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333419CA-489B-534C-9571-ABC48E4CE77F}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="256" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="256">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="36.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -639,24 +639,30 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>16.399999999999999</v>
       </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>50.99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -667,24 +673,30 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>16.399999999999999</v>
       </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>28.98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -695,15 +707,18 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>16.399999999999999</v>
       </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -713,6 +728,9 @@
       </c>
       <c r="D7" s="1">
         <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -728,8 +746,11 @@
       <c r="D8" s="1">
         <v>26</v>
       </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>